--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJTLiveProjet\ERP_HybridFrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164D501-E497-4BB1-AC7A-C9DC711FF145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB7DD8-2A23-4968-8497-D328B8D61239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{19118503-F649-4B1D-8A84-EE55C93F5781}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{19118503-F649-4B1D-8A84-EE55C93F5781}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,15 +234,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C12B76-93DD-4C8C-B12D-8B00098F0438}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -572,78 +588,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.75" x14ac:dyDescent="1.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8189580-7A85-4F0A-9240-8B4BBCF08CF4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -669,203 +685,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJTLiveProjet\ERP_HybridFrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB7DD8-2A23-4968-8497-D328B8D61239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2245401B-56C1-4ECF-8AB4-AB65827C4F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{19118503-F649-4B1D-8A84-EE55C93F5781}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="Stockcategories" sheetId="3" r:id="rId3"/>
+    <sheet name="supplier" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="105">
   <si>
     <t>TCID</t>
   </si>
@@ -173,6 +175,174 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Wait for Stock items link</t>
+  </si>
+  <si>
+    <t>//a[.='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Mouse to Stcokitem and categories</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t>Wait for Add +Icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add +Icon</t>
+  </si>
+  <si>
+    <t>Wait for Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>MobilePhones</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Confirm Ok Button</t>
+  </si>
+  <si>
+    <t>Click ok to Confirm button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok button</t>
+  </si>
+  <si>
+    <t>Click Alert ok button</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[.='Suppliers'])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>Capture Supplier Number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Jio Reliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Hydrerabad</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>Jio Sims are supplied</t>
+  </si>
+  <si>
+    <t>Click add Button</t>
+  </si>
+  <si>
+    <t>Table validation</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>x_Address</t>
+  </si>
+  <si>
+    <t>x_Country</t>
+  </si>
+  <si>
+    <t>x_Contact_Person</t>
+  </si>
+  <si>
+    <t>x_City</t>
+  </si>
+  <si>
+    <t>x_Phone_Number</t>
+  </si>
+  <si>
+    <t>x__Email</t>
+  </si>
+  <si>
+    <t>x_Mobile_Number</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
   </si>
 </sst>
 </file>
@@ -576,7 +746,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -621,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -633,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -672,7 +842,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -887,4 +1057,937 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377C01F9-A1DB-42F3-AEA7-2FDA2C0A3E89}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="30.31640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FA8907-E03D-4468-8C25-06F2D65E82AA}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="16.76953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8765432123</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8765432345</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{8ADBE696-EA2F-4B68-9399-02B255803BC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>